--- a/Документация/Профиль НТ.xlsx
+++ b/Документация/Профиль НТ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Николай\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Николай\dev\appline_dz\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAFAF41-E340-400C-90B7-58998FA749C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82879AA1-9A75-4AC7-B817-015766A34EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3B45CA9-5856-455E-A91A-E1441BC7A5AF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>№</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>max. время выполнения скрипта (c think time)</t>
+  </si>
+  <si>
+    <t>запросов/20 мин</t>
+  </si>
+  <si>
+    <t>фактически за 20 минут</t>
+  </si>
+  <si>
+    <t>% отколнения</t>
   </si>
 </sst>
 </file>
@@ -205,7 +214,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -242,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +292,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -685,8 +699,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -694,8 +721,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -781,6 +809,37 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,44 +852,24 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="8" borderId="9" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="7" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="8" borderId="9" xfId="7" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% — акцент1" xfId="2" builtinId="30"/>
     <cellStyle name="20% — акцент2" xfId="5" builtinId="34"/>
     <cellStyle name="20% — акцент5" xfId="6" builtinId="46"/>
     <cellStyle name="40% — акцент1" xfId="3" builtinId="31"/>
     <cellStyle name="Акцент2" xfId="4" builtinId="33"/>
+    <cellStyle name="Акцент6" xfId="7" builtinId="49"/>
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1147,7 +1186,7 @@
   <dimension ref="A3:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1307,7 @@
         <f>ROUND(G5*H5*I5,0)</f>
         <v>12</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="47">
         <f>G5/$G$10</f>
         <v>0.125</v>
       </c>
@@ -1311,8 +1350,8 @@
         <f>ROUND(G6*H6*I6,0)</f>
         <v>91</v>
       </c>
-      <c r="K6" s="61">
-        <f t="shared" ref="K6:K9" si="2">G6/$G$10</f>
+      <c r="K6" s="47">
+        <f t="shared" ref="K6:K8" si="2">G6/$G$10</f>
         <v>0.125</v>
       </c>
       <c r="L6" s="32">
@@ -1354,7 +1393,7 @@
         <f>ROUND(G7*H7*I7,0)</f>
         <v>172</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="47">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -1397,7 +1436,7 @@
         <f>ROUND(G8*H8*I8,0)</f>
         <v>91</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="47">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
@@ -1440,7 +1479,7 @@
         <f>ROUND(G9*H9*I9,0)</f>
         <v>73</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="47">
         <f>G9/$G$10</f>
         <v>0.125</v>
       </c>
@@ -1479,20 +1518,29 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="58"/>
+      <c r="G11" s="55"/>
+      <c r="I11" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="64" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="36" t="s">
@@ -1501,10 +1549,13 @@
       <c r="C12" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="36" t="s">
@@ -1520,11 +1571,25 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D13,Лист2!$H$7:$H$30)</f>
         <v>439</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="58">
         <f>1-C13/E13</f>
         <v>3.6446469248291535E-2</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="59"/>
+      <c r="I13" s="65">
+        <f>ROUND(E13/3,0)</f>
+        <v>146</v>
+      </c>
+      <c r="J13" s="66">
+        <v>146</v>
+      </c>
+      <c r="K13" s="67">
+        <f>1-I13/J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="63" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="41" t="s">
@@ -1540,11 +1605,25 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D14,Лист2!$H$7:$H$30)</f>
         <v>439</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="58">
         <f>1-C14/E14</f>
         <v>3.8724373576309756E-2</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="59"/>
+      <c r="I14" s="65">
+        <f t="shared" ref="I14:I21" si="3">ROUND(E14/3,0)</f>
+        <v>146</v>
+      </c>
+      <c r="J14" s="66">
+        <v>145</v>
+      </c>
+      <c r="K14" s="67">
+        <f t="shared" ref="K14:K22" si="4">1-I14/J14</f>
+        <v>-6.8965517241379448E-3</v>
+      </c>
+      <c r="L14" s="63" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="41" t="s">
@@ -1560,11 +1639,25 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D15,Лист2!$H$7:$H$30)</f>
         <v>263</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="58">
         <f>1-C15/E15</f>
         <v>-7.2243346007604625E-2</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="59"/>
+      <c r="I15" s="65">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="J15" s="66">
+        <v>87</v>
+      </c>
+      <c r="K15" s="67">
+        <f t="shared" si="4"/>
+        <v>-1.1494252873563315E-2</v>
+      </c>
+      <c r="L15" s="63" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="42" t="s">
@@ -1580,13 +1673,27 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D16,Лист2!$H$7:$H$30)</f>
         <v>263</v>
       </c>
-      <c r="F16" s="47">
-        <f t="shared" ref="F16:F21" si="3">1-C16/E16</f>
+      <c r="F16" s="58">
+        <f t="shared" ref="F16:F21" si="5">1-C16/E16</f>
         <v>-6.4638783269961975E-2</v>
       </c>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G16" s="59"/>
+      <c r="I16" s="65">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="J16" s="66">
+        <v>87</v>
+      </c>
+      <c r="K16" s="67">
+        <f t="shared" si="4"/>
+        <v>-1.1494252873563315E-2</v>
+      </c>
+      <c r="L16" s="63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="41" t="s">
         <v>23</v>
       </c>
@@ -1600,13 +1707,27 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D17,Лист2!$H$7:$H$30)</f>
         <v>263</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="58">
+        <f t="shared" si="5"/>
+        <v>4.5627376425855459E-2</v>
+      </c>
+      <c r="G17" s="59"/>
+      <c r="I17" s="65">
         <f t="shared" si="3"/>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="J17" s="66">
+        <v>88</v>
+      </c>
+      <c r="K17" s="67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="41" t="s">
         <v>24</v>
       </c>
@@ -1620,13 +1741,27 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D18,Лист2!$H$7:$H$30)</f>
         <v>172</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="58">
+        <f t="shared" si="5"/>
+        <v>-1.744186046511631E-2</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="I18" s="65">
         <f t="shared" si="3"/>
-        <v>-1.744186046511631E-2</v>
-      </c>
-      <c r="G18" s="48"/>
-    </row>
-    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="J18" s="66">
+        <v>58</v>
+      </c>
+      <c r="K18" s="67">
+        <f t="shared" si="4"/>
+        <v>1.7241379310344862E-2</v>
+      </c>
+      <c r="L18" s="63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
         <v>25</v>
       </c>
@@ -1640,13 +1775,27 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D19,Лист2!$H$7:$H$30)</f>
         <v>164</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="58">
+        <f t="shared" si="5"/>
+        <v>3.0487804878048808E-2</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="I19" s="65">
         <f t="shared" si="3"/>
-        <v>3.0487804878048808E-2</v>
-      </c>
-      <c r="G19" s="48"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="J19" s="66">
+        <v>54</v>
+      </c>
+      <c r="K19" s="67">
+        <f t="shared" si="4"/>
+        <v>-1.8518518518518601E-2</v>
+      </c>
+      <c r="L19" s="63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="41" t="s">
         <v>26</v>
       </c>
@@ -1660,13 +1809,27 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D20,Лист2!$H$7:$H$30)</f>
         <v>73</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="I20" s="65">
         <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="J20" s="66">
+        <v>24</v>
+      </c>
+      <c r="K20" s="67">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G20" s="48"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="L20" s="63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="41" t="s">
         <v>27</v>
       </c>
@@ -1680,13 +1843,27 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D21,Лист2!$H$7:$H$30)</f>
         <v>348</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="58">
+        <f t="shared" si="5"/>
+        <v>6.3218390804597679E-2</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="I21" s="65">
         <f t="shared" si="3"/>
-        <v>6.3218390804597679E-2</v>
-      </c>
-      <c r="G21" s="48"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="J21" s="66">
+        <v>117</v>
+      </c>
+      <c r="K21" s="67">
+        <f t="shared" si="4"/>
+        <v>8.5470085470085166E-3</v>
+      </c>
+      <c r="L21" s="63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="43" t="s">
         <v>28</v>
       </c>
@@ -1699,16 +1876,26 @@
         <f>SUM(E13:E21)</f>
         <v>2424</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="I22" s="62">
+        <f>E22/3</f>
+        <v>808</v>
+      </c>
+      <c r="J22">
+        <f>SUM(J13:J21)</f>
+        <v>806</v>
+      </c>
+      <c r="K22" s="67">
+        <f t="shared" si="4"/>
+        <v>-2.4813895781636841E-3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="F19:G19"/>
+  <mergeCells count="17">
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
@@ -1718,6 +1905,11 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1729,7 +1921,7 @@
   <dimension ref="A5:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,7 +1967,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1798,14 +1990,14 @@
         <v>0.19446740240167243</v>
       </c>
       <c r="G7" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H7" s="10">
         <f>VLOOKUP(A7,Лист1!$C$5:$K$9,8,0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1827,8 +2019,8 @@
         <f>VLOOKUP(A8,Лист1!$C$5:$K$9,6,0)</f>
         <v>0.19446740240167243</v>
       </c>
-      <c r="G8" s="12">
-        <v>20</v>
+      <c r="G8" s="9">
+        <v>60</v>
       </c>
       <c r="H8" s="13">
         <f>VLOOKUP(A8,Лист1!$C$5:$K$9,8,0)</f>
@@ -1857,15 +2049,15 @@
         <f>VLOOKUP(A9,Лист1!$C$5:$K$9,6,0)</f>
         <v>0.19446740240167243</v>
       </c>
-      <c r="G9" s="15">
-        <v>20</v>
+      <c r="G9" s="9">
+        <v>60</v>
       </c>
       <c r="H9" s="16">
         <f>VLOOKUP(A9,Лист1!$C$5:$K$9,8,0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -1888,14 +2080,14 @@
         <v>1.5192373428538875</v>
       </c>
       <c r="G10" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H10" s="10">
         <f>VLOOKUP(A10,Лист1!$C$5:$K$9,8,0)</f>
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -1917,15 +2109,15 @@
         <f>VLOOKUP(A11,Лист1!$C$5:$K$9,6,0)</f>
         <v>1.5192373428538875</v>
       </c>
-      <c r="G11" s="12">
-        <v>20</v>
+      <c r="G11" s="9">
+        <v>60</v>
       </c>
       <c r="H11" s="13">
         <f>VLOOKUP(A11,Лист1!$C$5:$K$9,8,0)</f>
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
@@ -1947,8 +2139,8 @@
         <f>VLOOKUP(A12,Лист1!$C$5:$K$9,6,0)</f>
         <v>1.5192373428538875</v>
       </c>
-      <c r="G12" s="12">
-        <v>20</v>
+      <c r="G12" s="9">
+        <v>60</v>
       </c>
       <c r="H12" s="13">
         <f>VLOOKUP(A12,Лист1!$C$5:$K$9,8,0)</f>
@@ -1977,8 +2169,8 @@
         <f>VLOOKUP(A13,Лист1!$C$5:$K$9,6,0)</f>
         <v>1.5192373428538875</v>
       </c>
-      <c r="G13" s="12">
-        <v>20</v>
+      <c r="G13" s="9">
+        <v>60</v>
       </c>
       <c r="H13" s="16">
         <f>VLOOKUP(A13,Лист1!$C$5:$K$9,8,0)</f>
@@ -2007,15 +2199,15 @@
         <f>VLOOKUP(A14,Лист1!$C$5:$K$9,6,0)</f>
         <v>1.5192373428538875</v>
       </c>
-      <c r="G14" s="12">
-        <v>20</v>
+      <c r="G14" s="9">
+        <v>60</v>
       </c>
       <c r="H14" s="16">
         <f>VLOOKUP(A14,Лист1!$C$5:$K$9,8,0)</f>
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -2038,14 +2230,14 @@
         <v>0.71670947213989022</v>
       </c>
       <c r="G15" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H15" s="10">
         <f>VLOOKUP(A15,Лист1!$C$5:$K$9,8,0)</f>
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
@@ -2067,15 +2259,15 @@
         <f>VLOOKUP(A16,Лист1!$C$5:$K$9,6,0)</f>
         <v>0.71670947213989022</v>
       </c>
-      <c r="G16" s="12">
-        <v>20</v>
+      <c r="G16" s="9">
+        <v>60</v>
       </c>
       <c r="H16" s="13">
         <f>VLOOKUP(A16,Лист1!$C$5:$K$9,8,0)</f>
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -2097,15 +2289,15 @@
         <f>VLOOKUP(A17,Лист1!$C$5:$K$9,6,0)</f>
         <v>0.71670947213989022</v>
       </c>
-      <c r="G17" s="12">
-        <v>20</v>
+      <c r="G17" s="9">
+        <v>60</v>
       </c>
       <c r="H17" s="13">
         <f>VLOOKUP(A17,Лист1!$C$5:$K$9,8,0)</f>
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
@@ -2127,15 +2319,15 @@
         <f>VLOOKUP(A18,Лист1!$C$5:$K$9,6,0)</f>
         <v>0.71670947213989022</v>
       </c>
-      <c r="G18" s="12">
-        <v>20</v>
+      <c r="G18" s="9">
+        <v>60</v>
       </c>
       <c r="H18" s="13">
         <f>VLOOKUP(A18,Лист1!$C$5:$K$9,8,0)</f>
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
@@ -2157,15 +2349,15 @@
         <f>VLOOKUP(A19,Лист1!$C$5:$K$9,6,0)</f>
         <v>0.71670947213989022</v>
       </c>
-      <c r="G19" s="12">
-        <v>20</v>
+      <c r="G19" s="9">
+        <v>60</v>
       </c>
       <c r="H19" s="13">
         <f>VLOOKUP(A19,Лист1!$C$5:$K$9,8,0)</f>
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>17</v>
       </c>
@@ -2187,8 +2379,8 @@
         <f>VLOOKUP(A20,Лист1!$C$5:$K$9,6,0)</f>
         <v>0.71670947213989022</v>
       </c>
-      <c r="G20" s="12">
-        <v>20</v>
+      <c r="G20" s="9">
+        <v>60</v>
       </c>
       <c r="H20" s="13">
         <f>VLOOKUP(A20,Лист1!$C$5:$K$9,8,0)</f>
@@ -2217,15 +2409,15 @@
         <f>VLOOKUP(A21,Лист1!$C$5:$K$9,6,0)</f>
         <v>0.71670947213989022</v>
       </c>
-      <c r="G21" s="15">
-        <v>20</v>
+      <c r="G21" s="9">
+        <v>60</v>
       </c>
       <c r="H21" s="16">
         <f>VLOOKUP(A21,Лист1!$C$5:$K$9,8,0)</f>
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
@@ -2248,14 +2440,14 @@
         <v>1.5238772516873766</v>
       </c>
       <c r="G22" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H22" s="10">
         <f>VLOOKUP(A22,Лист1!$C$5:$K$9,8,0)</f>
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>18</v>
       </c>
@@ -2277,15 +2469,15 @@
         <f>VLOOKUP(A23,Лист1!$C$5:$K$9,6,0)</f>
         <v>1.5238772516873766</v>
       </c>
-      <c r="G23" s="12">
-        <v>20</v>
+      <c r="G23" s="9">
+        <v>60</v>
       </c>
       <c r="H23" s="13">
         <f>VLOOKUP(A23,Лист1!$C$5:$K$9,8,0)</f>
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>18</v>
       </c>
@@ -2307,8 +2499,8 @@
         <f>VLOOKUP(A24,Лист1!$C$5:$K$9,6,0)</f>
         <v>1.5238772516873766</v>
       </c>
-      <c r="G24" s="12">
-        <v>20</v>
+      <c r="G24" s="9">
+        <v>60</v>
       </c>
       <c r="H24" s="13">
         <f>VLOOKUP(A24,Лист1!$C$5:$K$9,8,0)</f>
@@ -2337,15 +2529,15 @@
         <f>VLOOKUP(A25,Лист1!$C$5:$K$9,6,0)</f>
         <v>1.5238772516873766</v>
       </c>
-      <c r="G25" s="15">
-        <v>20</v>
+      <c r="G25" s="9">
+        <v>60</v>
       </c>
       <c r="H25" s="16">
         <f>VLOOKUP(A25,Лист1!$C$5:$K$9,8,0)</f>
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>19</v>
       </c>
@@ -2368,14 +2560,14 @@
         <v>1.2244315229732332</v>
       </c>
       <c r="G26" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H26" s="10">
         <f>VLOOKUP(A26,Лист1!$C$5:$K$9,8,0)</f>
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>19</v>
       </c>
@@ -2397,15 +2589,15 @@
         <f>VLOOKUP(A27,Лист1!$C$5:$K$9,6,0)</f>
         <v>1.2244315229732332</v>
       </c>
-      <c r="G27" s="12">
-        <v>20</v>
+      <c r="G27" s="9">
+        <v>60</v>
       </c>
       <c r="H27" s="13">
         <f>VLOOKUP(A27,Лист1!$C$5:$K$9,8,0)</f>
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -2427,15 +2619,15 @@
         <f>VLOOKUP(A28,Лист1!$C$5:$K$9,6,0)</f>
         <v>1.2244315229732332</v>
       </c>
-      <c r="G28" s="12">
-        <v>20</v>
+      <c r="G28" s="9">
+        <v>60</v>
       </c>
       <c r="H28" s="13">
         <f>VLOOKUP(A28,Лист1!$C$5:$K$9,8,0)</f>
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>19</v>
       </c>
@@ -2457,8 +2649,8 @@
         <f>VLOOKUP(A29,Лист1!$C$5:$K$9,6,0)</f>
         <v>1.2244315229732332</v>
       </c>
-      <c r="G29" s="12">
-        <v>20</v>
+      <c r="G29" s="9">
+        <v>60</v>
       </c>
       <c r="H29" s="13">
         <f>VLOOKUP(A29,Лист1!$C$5:$K$9,8,0)</f>
@@ -2487,8 +2679,8 @@
         <f>VLOOKUP(A30,Лист1!$C$5:$K$9,6,0)</f>
         <v>1.2244315229732332</v>
       </c>
-      <c r="G30" s="15">
-        <v>20</v>
+      <c r="G30" s="9">
+        <v>60</v>
       </c>
       <c r="H30" s="16">
         <f>VLOOKUP(A30,Лист1!$C$5:$K$9,8,0)</f>

--- a/Документация/Профиль НТ.xlsx
+++ b/Документация/Профиль НТ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Николай\dev\appline_dz\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82879AA1-9A75-4AC7-B817-015766A34EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E727DCA-4554-4F1E-9E97-E2EFE7F03038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3B45CA9-5856-455E-A91A-E1441BC7A5AF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
   <si>
     <t>№</t>
   </si>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>% отколнения</t>
+  </si>
+  <si>
+    <t>Фактически за 1 час - 400% от профиля</t>
+  </si>
+  <si>
+    <t>% отклонения - тест надежности</t>
+  </si>
+  <si>
+    <t>Название транзакции</t>
+  </si>
+  <si>
+    <t>Рассчитано за 1 час - 400% от профиля</t>
   </si>
 </sst>
 </file>
@@ -298,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -699,19 +711,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -723,7 +722,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,58 +809,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="8" borderId="9" xfId="7" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="7" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="8" borderId="9" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% — акцент1" xfId="2" builtinId="30"/>
@@ -1183,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DAF6C7-6F4E-44B0-8226-485FBE9B182B}">
-  <dimension ref="A3:L22"/>
+  <dimension ref="A3:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,9 +1201,12 @@
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>10.7818</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>15.7974</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>31.0059</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>15.7493</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>20.7637</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="25" t="s">
         <v>31</v>
       </c>
@@ -1517,47 +1518,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="55"/>
-      <c r="I11" s="64" t="s">
+      <c r="G11" s="61"/>
+      <c r="I11" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="68" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="57"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="36" t="s">
         <v>48</v>
       </c>
@@ -1571,27 +1588,38 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D13,Лист2!$H$7:$H$30)</f>
         <v>439</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="64">
         <f>1-C13/E13</f>
         <v>3.6446469248291535E-2</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="I13" s="65">
+      <c r="G13" s="65"/>
+      <c r="I13" s="49">
         <f>ROUND(E13/3,0)</f>
         <v>146</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="50">
         <v>146</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="51">
         <f>1-I13/J13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="63" t="s">
+      <c r="L13" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="50">
+        <v>1763</v>
+      </c>
+      <c r="N13" s="50">
+        <f>E13*4</f>
+        <v>1756</v>
+      </c>
+      <c r="O13" s="51">
+        <f>1-N13/M13</f>
+        <v>3.9705048213273253E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="41" t="s">
         <v>21</v>
       </c>
@@ -1605,27 +1633,38 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D14,Лист2!$H$7:$H$30)</f>
         <v>439</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="64">
         <f>1-C14/E14</f>
         <v>3.8724373576309756E-2</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="I14" s="65">
+      <c r="G14" s="65"/>
+      <c r="I14" s="49">
         <f t="shared" ref="I14:I21" si="3">ROUND(E14/3,0)</f>
         <v>146</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="50">
         <v>145</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="51">
         <f t="shared" ref="K14:K22" si="4">1-I14/J14</f>
         <v>-6.8965517241379448E-3</v>
       </c>
-      <c r="L14" s="63" t="s">
+      <c r="L14" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M14" s="50">
+        <v>1760</v>
+      </c>
+      <c r="N14" s="50">
+        <f t="shared" ref="N14:N22" si="5">E14*4</f>
+        <v>1756</v>
+      </c>
+      <c r="O14" s="51">
+        <f t="shared" ref="O14:O22" si="6">1-N14/M14</f>
+        <v>2.2727272727273151E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="41" t="s">
         <v>22</v>
       </c>
@@ -1639,27 +1678,38 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D15,Лист2!$H$7:$H$30)</f>
         <v>263</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="64">
         <f>1-C15/E15</f>
         <v>-7.2243346007604625E-2</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="I15" s="65">
+      <c r="G15" s="65"/>
+      <c r="I15" s="49">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J15" s="50">
         <v>87</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="51">
         <f t="shared" si="4"/>
         <v>-1.1494252873563315E-2</v>
       </c>
-      <c r="L15" s="63" t="s">
+      <c r="L15" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M15" s="50">
+        <v>1051</v>
+      </c>
+      <c r="N15" s="50">
+        <f t="shared" si="5"/>
+        <v>1052</v>
+      </c>
+      <c r="O15" s="51">
+        <f t="shared" si="6"/>
+        <v>-9.5147478591828261E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="42" t="s">
         <v>52</v>
       </c>
@@ -1673,27 +1723,38 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D16,Лист2!$H$7:$H$30)</f>
         <v>263</v>
       </c>
-      <c r="F16" s="58">
-        <f t="shared" ref="F16:F21" si="5">1-C16/E16</f>
+      <c r="F16" s="64">
+        <f t="shared" ref="F16:F21" si="7">1-C16/E16</f>
         <v>-6.4638783269961975E-2</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="I16" s="65">
+      <c r="G16" s="65"/>
+      <c r="I16" s="49">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="50">
         <v>87</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K16" s="51">
         <f t="shared" si="4"/>
         <v>-1.1494252873563315E-2</v>
       </c>
-      <c r="L16" s="63" t="s">
+      <c r="L16" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M16" s="50">
+        <v>1052</v>
+      </c>
+      <c r="N16" s="50">
+        <f t="shared" si="5"/>
+        <v>1052</v>
+      </c>
+      <c r="O16" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="41" t="s">
         <v>23</v>
       </c>
@@ -1707,27 +1768,38 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D17,Лист2!$H$7:$H$30)</f>
         <v>263</v>
       </c>
-      <c r="F17" s="58">
-        <f t="shared" si="5"/>
+      <c r="F17" s="64">
+        <f t="shared" si="7"/>
         <v>4.5627376425855459E-2</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="I17" s="65">
+      <c r="G17" s="65"/>
+      <c r="I17" s="49">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="J17" s="66">
-        <v>88</v>
-      </c>
-      <c r="K17" s="67">
+      <c r="J17" s="50">
+        <v>87</v>
+      </c>
+      <c r="K17" s="51">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="63" t="s">
+        <v>-1.1494252873563315E-2</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="50">
+        <v>1051</v>
+      </c>
+      <c r="N17" s="50">
+        <f t="shared" si="5"/>
+        <v>1052</v>
+      </c>
+      <c r="O17" s="51">
+        <f t="shared" si="6"/>
+        <v>-9.5147478591828261E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="41" t="s">
         <v>24</v>
       </c>
@@ -1741,27 +1813,38 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D18,Лист2!$H$7:$H$30)</f>
         <v>172</v>
       </c>
-      <c r="F18" s="58">
-        <f t="shared" si="5"/>
+      <c r="F18" s="64">
+        <f t="shared" si="7"/>
         <v>-1.744186046511631E-2</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="I18" s="65">
+      <c r="G18" s="65"/>
+      <c r="I18" s="49">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="J18" s="66">
+      <c r="J18" s="50">
         <v>58</v>
       </c>
-      <c r="K18" s="67">
+      <c r="K18" s="51">
         <f t="shared" si="4"/>
         <v>1.7241379310344862E-2</v>
       </c>
-      <c r="L18" s="63" t="s">
+      <c r="L18" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M18" s="50">
+        <v>683</v>
+      </c>
+      <c r="N18" s="50">
+        <f t="shared" si="5"/>
+        <v>688</v>
+      </c>
+      <c r="O18" s="51">
+        <f t="shared" si="6"/>
+        <v>-7.3206442166910968E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="41" t="s">
         <v>25</v>
       </c>
@@ -1775,27 +1858,38 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D19,Лист2!$H$7:$H$30)</f>
         <v>164</v>
       </c>
-      <c r="F19" s="58">
-        <f t="shared" si="5"/>
+      <c r="F19" s="64">
+        <f t="shared" si="7"/>
         <v>3.0487804878048808E-2</v>
       </c>
-      <c r="G19" s="59"/>
-      <c r="I19" s="65">
+      <c r="G19" s="65"/>
+      <c r="I19" s="49">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="50">
         <v>54</v>
       </c>
-      <c r="K19" s="67">
+      <c r="K19" s="51">
         <f t="shared" si="4"/>
         <v>-1.8518518518518601E-2</v>
       </c>
-      <c r="L19" s="63" t="s">
+      <c r="L19" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M19" s="50">
+        <v>663</v>
+      </c>
+      <c r="N19" s="50">
+        <f t="shared" si="5"/>
+        <v>656</v>
+      </c>
+      <c r="O19" s="51">
+        <f t="shared" si="6"/>
+        <v>1.0558069381598756E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="41" t="s">
         <v>26</v>
       </c>
@@ -1809,27 +1903,38 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D20,Лист2!$H$7:$H$30)</f>
         <v>73</v>
       </c>
-      <c r="F20" s="58">
-        <f t="shared" si="5"/>
+      <c r="F20" s="64">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="I20" s="65">
+      <c r="G20" s="65"/>
+      <c r="I20" s="49">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="J20" s="66">
-        <v>24</v>
-      </c>
-      <c r="K20" s="67">
+      <c r="J20" s="50">
+        <v>23</v>
+      </c>
+      <c r="K20" s="51">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="63" t="s">
+        <v>-4.3478260869565188E-2</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="50">
+        <v>290</v>
+      </c>
+      <c r="N20" s="50">
+        <f t="shared" si="5"/>
+        <v>292</v>
+      </c>
+      <c r="O20" s="51">
+        <f t="shared" si="6"/>
+        <v>-6.8965517241379448E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="41" t="s">
         <v>27</v>
       </c>
@@ -1843,27 +1948,38 @@
         <f>SUMIF(Лист2!$B$7:$B$30,Лист1!D21,Лист2!$H$7:$H$30)</f>
         <v>348</v>
       </c>
-      <c r="F21" s="58">
-        <f t="shared" si="5"/>
+      <c r="F21" s="64">
+        <f t="shared" si="7"/>
         <v>6.3218390804597679E-2</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="I21" s="65">
+      <c r="G21" s="65"/>
+      <c r="I21" s="49">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="J21" s="66">
-        <v>117</v>
-      </c>
-      <c r="K21" s="67">
+      <c r="J21" s="50">
+        <v>116</v>
+      </c>
+      <c r="K21" s="51">
         <f t="shared" si="4"/>
-        <v>8.5470085470085166E-3</v>
-      </c>
-      <c r="L21" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M21" s="50">
+        <v>1393</v>
+      </c>
+      <c r="N21" s="50">
+        <f t="shared" si="5"/>
+        <v>1392</v>
+      </c>
+      <c r="O21" s="51">
+        <f t="shared" si="6"/>
+        <v>7.1787508973442105E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="43" t="s">
         <v>28</v>
       </c>
@@ -1876,28 +1992,40 @@
         <f>SUM(E13:E21)</f>
         <v>2424</v>
       </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="I22" s="62">
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="I22" s="48">
         <f>E22/3</f>
         <v>808</v>
       </c>
       <c r="J22">
         <f>SUM(J13:J21)</f>
-        <v>806</v>
-      </c>
-      <c r="K22" s="67">
+        <v>803</v>
+      </c>
+      <c r="K22" s="51">
         <f t="shared" si="4"/>
-        <v>-2.4813895781636841E-3</v>
-      </c>
+        <v>-6.2266500622665255E-3</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="50">
+        <f>SUM(M13:M21)</f>
+        <v>9706</v>
+      </c>
+      <c r="N22" s="50">
+        <f t="shared" si="5"/>
+        <v>9696</v>
+      </c>
+      <c r="O22" s="51">
+        <f t="shared" si="6"/>
+        <v>1.0302905419328212E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D32" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
+  <mergeCells count="21">
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
@@ -1905,11 +2033,19 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="L11:L12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:G12"/>
-    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1921,7 +2057,7 @@
   <dimension ref="A5:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
